--- a/EmpTest.xlsx
+++ b/EmpTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ychawla2\Desktop\Ninja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B11317-77FF-4B96-A3AE-A65FB880B692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42694D51-A2E4-4908-8987-4A229392A9D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,33 +33,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
-    <t>EMPID</t>
+    <t>Capability</t>
   </si>
   <si>
-    <t>SALARY</t>
+    <t>No_emp_assigned</t>
   </si>
   <si>
-    <t>EMPCODE</t>
+    <t>No_emp_undergoing</t>
   </si>
   <si>
-    <t>WRV</t>
+    <t>PowerShell And Bash</t>
   </si>
   <si>
-    <t>XYZ</t>
+    <t>A</t>
   </si>
   <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>RPR</t>
-  </si>
-  <si>
-    <t>POE</t>
-  </si>
-  <si>
-    <t>XCG</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -411,13 +402,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -431,143 +427,93 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>101</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+        <v>3979</v>
+      </c>
+      <c r="C2">
+        <v>3621</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>111</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
         <v>155</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="C3">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>121</v>
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>165</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
+        <v>4000</v>
+      </c>
+      <c r="C4">
+        <v>3900</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>131</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
+        <v>2834.3333333333298</v>
+      </c>
+      <c r="C5">
+        <v>2732.3333333333298</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>141</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>185</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+        <v>2973.8333333333298</v>
+      </c>
+      <c r="C6">
+        <v>2742.8333333333298</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>151</v>
+      <c r="A7" t="s">
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>195</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>161</v>
-      </c>
-      <c r="B8">
-        <v>205</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>171</v>
-      </c>
-      <c r="B9">
-        <v>215</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>181</v>
-      </c>
-      <c r="B10">
-        <v>225</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>191</v>
-      </c>
-      <c r="B11">
-        <v>235</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>201</v>
-      </c>
-      <c r="B12">
-        <v>245</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>211</v>
-      </c>
-      <c r="B13">
-        <v>255</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
+        <v>3113.3333333333298</v>
+      </c>
+      <c r="C7">
+        <v>2753.3333333333298</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100205DB1CF24F23E458DC407EB7EBAE0AC" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b5dd83d32b4067d9ba7aa7e1d570106">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2e240e5-b752-4dcd-b333-58f2e18700b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc9622b7514dd399f0ebdd8ab9a8c666" ns2:_="">
     <xsd:import namespace="d2e240e5-b752-4dcd-b333-58f2e18700b7"/>
@@ -699,22 +645,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7DAC1B-1460-4236-8878-93D759A7F5B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF75B6EE-4A96-4224-8131-315BFC932EFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3665B32-A03A-44C6-80C9-DC2D4B7A9E43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -730,21 +678,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF75B6EE-4A96-4224-8131-315BFC932EFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7DAC1B-1460-4236-8878-93D759A7F5B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>